--- a/results/Sobol_industrial CCB.xlsx
+++ b/results/Sobol_industrial CCB.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.03144885668334609</v>
+        <v>0.03146904407167315</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03235413990697864</v>
+        <v>0.03235680657009057</v>
       </c>
     </row>
     <row r="3">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9676504516037615</v>
+        <v>0.967656760554653</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9685649826546758</v>
+        <v>0.9685917798026408</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.946567566474721e-09</v>
+        <v>9.660919902847949e-09</v>
       </c>
       <c r="E5" t="n">
-        <v>6.007669342541983e-09</v>
+        <v>6.007888985728681e-09</v>
       </c>
     </row>
     <row r="6">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.196404092647807e-07</v>
+        <v>2.741958711267166e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>2.881876901992187e-07</v>
+        <v>2.882136047423763e-07</v>
       </c>
     </row>
     <row r="8">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.01452559718060598</v>
+        <v>0.01453802388608829</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01544623660350069</v>
+        <v>0.01544807303649308</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9845604679637144</v>
+        <v>0.9845636262710433</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9854886119094126</v>
+        <v>0.9855139452845048</v>
       </c>
     </row>
     <row r="11">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.291291407325507e-07</v>
+        <v>1.183609242793857e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>1.246325110111839e-07</v>
+        <v>1.246334928049466e-07</v>
       </c>
     </row>
     <row r="12">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.270309518654816e-08</v>
+        <v>-2.466828372006292e-11</v>
       </c>
       <c r="E13" t="n">
-        <v>7.538887960726967e-10</v>
+        <v>7.539551095502989e-10</v>
       </c>
     </row>
     <row r="14">
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.03156830907907673</v>
+        <v>0.03158853792486246</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03247348345888032</v>
+        <v>0.03247615368391352</v>
       </c>
     </row>
     <row r="15">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9675311923611821</v>
+        <v>0.9675375234172369</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9684456676151211</v>
+        <v>0.968472430441195</v>
       </c>
     </row>
     <row r="17">
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.139771371130841e-09</v>
+        <v>5.611587905511021e-09</v>
       </c>
       <c r="E17" t="n">
-        <v>2.746287218196195e-09</v>
+        <v>2.746397231565125e-09</v>
       </c>
     </row>
     <row r="18">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.836683785786992e-07</v>
+        <v>1.824181616403351e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>1.937805589290835e-07</v>
+        <v>1.937979779442225e-07</v>
       </c>
     </row>
     <row r="20">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.03235233206686806</v>
+        <v>0.032372860115338</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03325680141588395</v>
+        <v>0.03325950256040377</v>
       </c>
     </row>
     <row r="21">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9667478627164287</v>
+        <v>0.9667543117741804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9676617284586029</v>
+        <v>0.9676884985605098</v>
       </c>
     </row>
     <row r="23">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5.731112062916912e-09</v>
+        <v>1.000220948737365e-08</v>
       </c>
       <c r="E23" t="n">
-        <v>6.744380113069825e-09</v>
+        <v>6.744574025151049e-09</v>
       </c>
     </row>
     <row r="24">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2.927455972274614e-07</v>
+        <v>1.251681035281276e-07</v>
       </c>
       <c r="E25" t="n">
-        <v>1.345196681389048e-07</v>
+        <v>1.345317641912221e-07</v>
       </c>
     </row>
     <row r="26">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.03092540129856003</v>
+        <v>0.03094538129368182</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03183115389066077</v>
+        <v>0.03183379813783101</v>
       </c>
     </row>
     <row r="27">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.968173542685603</v>
+        <v>0.9681797761840885</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9690885257182322</v>
+        <v>0.9691152726487122</v>
       </c>
     </row>
     <row r="29">
@@ -1098,10 +1098,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.07169319360038e-09</v>
+        <v>4.084626812090834e-09</v>
       </c>
       <c r="E29" t="n">
-        <v>1.45522096190239e-09</v>
+        <v>1.455284479458788e-09</v>
       </c>
     </row>
     <row r="30">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4.36605483826324e-07</v>
+        <v>2.173357919256006e-07</v>
       </c>
       <c r="E31" t="n">
-        <v>2.298093471297889e-07</v>
+        <v>2.298299968048797e-07</v>
       </c>
     </row>
     <row r="32">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.03314373198089061</v>
+        <v>0.03316454497767273</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03404748585574772</v>
+        <v>0.03405021406698231</v>
       </c>
     </row>
     <row r="33">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9659572432298202</v>
+        <v>0.9659638219923407</v>
       </c>
       <c r="E34" t="n">
-        <v>0.966870602804186</v>
+        <v>0.966897273635972</v>
       </c>
     </row>
     <row r="35">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5.143452877321385e-12</v>
+        <v>5.18232726053194e-10</v>
       </c>
       <c r="E35" t="n">
-        <v>1.120232139837798e-10</v>
+        <v>1.120260244100549e-10</v>
       </c>
     </row>
     <row r="36">
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.740957389176702e-08</v>
+        <v>4.651411330203204e-10</v>
       </c>
       <c r="E37" t="n">
-        <v>1.376886637681411e-09</v>
+        <v>1.377010337569491e-09</v>
       </c>
     </row>
     <row r="38">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.003781666244923121</v>
+        <v>0.003786252730476862</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004712436155851771</v>
+        <v>0.004713411836343794</v>
       </c>
     </row>
     <row r="39">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9952863617876049</v>
+        <v>0.9952859633949431</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9962218635555441</v>
+        <v>0.9962456150104383</v>
       </c>
     </row>
     <row r="41">
@@ -1374,10 +1374,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.056273628645306e-05</v>
+        <v>1.047187020134892e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>1.052484988574363e-05</v>
+        <v>1.05249127435206e-05</v>
       </c>
     </row>
     <row r="42">
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.011344028902352e-07</v>
+        <v>6.964121885782947e-08</v>
       </c>
       <c r="E43" t="n">
-        <v>7.877770905089056e-08</v>
+        <v>7.878449156642441e-08</v>
       </c>
     </row>
     <row r="44">
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.03223812318184962</v>
+        <v>0.03225863337649704</v>
       </c>
       <c r="E44" t="n">
-        <v>0.03314270290730594</v>
+        <v>0.03314540643796228</v>
       </c>
     </row>
     <row r="45">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9668613163358853</v>
+        <v>0.9668677251940897</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9677750614304053</v>
+        <v>0.9678020309524413</v>
       </c>
     </row>
     <row r="47">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6.706003601624225e-08</v>
+        <v>7.961704682891658e-08</v>
       </c>
       <c r="E47" t="n">
-        <v>7.150617426769827e-08</v>
+        <v>7.150790891032728e-08</v>
       </c>
     </row>
     <row r="48">
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.112509851753182e-06</v>
+        <v>7.189450136028232e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>7.419417677928724e-07</v>
+        <v>7.420086339284861e-07</v>
       </c>
     </row>
   </sheetData>
